--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1968358.328095062</v>
+        <v>-1970356.001107907</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>33.77181235585289</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6447895230513</v>
       </c>
       <c r="F2" t="n">
-        <v>300.19563979951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>222.0757335577336</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>175.7939063102969</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>174.9119335969208</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>295.6772850478996</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>338.2584895448977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>339.3096626481628</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>69.92222575299417</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037943</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>125.7541714875889</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.7611531036545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273909</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>77.41339447783621</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>218.0786586340048</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051972</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.53167077399019</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>97.68000121430518</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>128.0020805478479</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857141</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2770,7 +2770,7 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W28" t="n">
         <v>218.3911082069503</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898755</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593962</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.461475247921</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C2" t="n">
-        <v>910.3485334743323</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="D2" t="n">
-        <v>910.3485334743323</v>
+        <v>1367.458879641871</v>
       </c>
       <c r="E2" t="n">
-        <v>524.560280876088</v>
+        <v>1107.211617497375</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>696.2257127077671</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>278.261904605954</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843237</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573123</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312043</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312043</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,31 +4428,31 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>372.9958041606071</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>372.9958041606071</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="V4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="W4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,28 +4647,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>684.3735766921516</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>684.3735766921516</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>684.3735766921516</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1702.283515201396</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1333.320998260984</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>975.0552996542337</v>
       </c>
       <c r="E8" t="n">
         <v>632.3182666762915</v>
@@ -4799,7 +4799,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2450.343092470783</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.343092470783</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2119.280205127212</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1766.511549857098</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C10" t="n">
-        <v>184.027325963587</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>184.027325963587</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.027325963587</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119726</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119726</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119726</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119726</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119726</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119726</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805453</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822445</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,25 +5343,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.2225136306376</v>
+        <v>286.9470307957487</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027308</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>967.6396836675983</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>967.6396836675983</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>678.2225136306376</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X16" t="n">
-        <v>678.2225136306376</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y16" t="n">
-        <v>678.2225136306376</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,19 +5510,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5580,37 +5580,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636248</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O18" t="n">
-        <v>2298.964529638816</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2503.987010421026</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>346.0003987658591</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>195.8837593535234</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.8933943850831</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,25 +5777,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1258.546136263316</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1258.546136263316</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>969.128966226355</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>969.128966226355</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>748.3363870828249</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,40 +5972,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6379,7 +6379,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,7 +6616,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6716,7 +6716,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083194</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625495</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649685</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7181,19 +7181,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7427,7 +7427,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,10 +7591,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.78140656352424</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735874</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>331.5010794151547</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>124.2855805492105</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,7 +23473,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>126.3834718362391</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.82350024844033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>89.83342662079163</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>68.15869376457252</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.3003094079471</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>68.81356724907241</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>158.2352718507294</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.720046538017391e-13</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564042</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="D2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="E2" t="n">
+        <v>39102.90597377087</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39102.90597377087</v>
+      </c>
+      <c r="H2" t="n">
+        <v>39102.90597377085</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.08849321424</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="E2" t="n">
-        <v>39102.90597377088</v>
-      </c>
-      <c r="F2" t="n">
-        <v>39102.90597377087</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39102.9059737709</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39102.90597377088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321423</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321423</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007561</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600756</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007547</v>
       </c>
       <c r="I4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="J4" t="n">
         <v>30335.51889732797</v>
@@ -26445,13 +26445,13 @@
         <v>30335.51889732797</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,16 +26491,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-735236.7423565367</v>
+        <v>-735450.1543464153</v>
       </c>
       <c r="C6" t="n">
         <v>-189724.0382861161</v>
@@ -26528,25 +26528,25 @@
         <v>-189724.0382861161</v>
       </c>
       <c r="E6" t="n">
-        <v>-585961.1881078492</v>
+        <v>-586058.6472338215</v>
       </c>
       <c r="F6" t="n">
-        <v>-60801.15163095329</v>
+        <v>-60898.61075692539</v>
       </c>
       <c r="G6" t="n">
-        <v>-60801.15163095327</v>
+        <v>-60898.6107569254</v>
       </c>
       <c r="H6" t="n">
-        <v>-60801.15163095322</v>
+        <v>-60898.61075692548</v>
       </c>
       <c r="I6" t="n">
-        <v>-141504.0483278517</v>
+        <v>-141504.0483278516</v>
       </c>
       <c r="J6" t="n">
-        <v>-263421.7554167322</v>
+        <v>-263421.755416732</v>
       </c>
       <c r="K6" t="n">
-        <v>-86998.53622413914</v>
+        <v>-86998.5362241392</v>
       </c>
       <c r="L6" t="n">
         <v>-86998.53622413917</v>
@@ -26558,10 +26558,10 @@
         <v>-141504.0483278517</v>
       </c>
       <c r="O6" t="n">
-        <v>-86998.53622413918</v>
+        <v>-86998.53622413917</v>
       </c>
       <c r="P6" t="n">
-        <v>-86998.53622413918</v>
+        <v>-86998.53622413916</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>106.6804059422014</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>101.8470392066235</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>36.35163263972197</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>111.3699406450569</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>69.59560672310795</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>10.9824791725153</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>56.51013809491937</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>242.9640208028377</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>42.62070742409895</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5260946046636</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>131.7256075138634</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.688249540165998e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.7944393485983</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296117</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q24" t="n">
         <v>88.0130327850741</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37084,10 +37084,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37795,10 +37795,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
